--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,207 +52,225 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>worked</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>make</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -271,30 +289,30 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>love</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -304,82 +322,85 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>every</t>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>cute</t>
+    <t>year</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>positive</t>
@@ -740,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -851,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -859,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -901,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K5">
-        <v>0.85</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -951,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -959,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7258064516129032</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K6">
-        <v>0.8461538461538461</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1001,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.671875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.8279569892473119</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L7">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1051,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6486486486486487</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>0.78125</v>
@@ -1109,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6428571428571429</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0.7169811320754716</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1151,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1159,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6310679611650486</v>
+        <v>0.640625</v>
       </c>
       <c r="C10">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1177,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6296296296296297</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>0.5942028985507246</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1251,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5818181818181818</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1277,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L12">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K13">
-        <v>0.5477178423236515</v>
+        <v>0.5228215767634855</v>
       </c>
       <c r="L13">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M13">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1377,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>0.4639344262295082</v>
+        <v>0.4741591468416735</v>
       </c>
       <c r="L14">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M14">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5428571428571428</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K15">
-        <v>0.3773584905660378</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5263157894736842</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K16">
-        <v>0.3669724770642202</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>0.3617021276595745</v>
@@ -1559,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4985507246376812</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>0.3493975903614458</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4814814814814815</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K19">
-        <v>0.3492063492063492</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L19">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="M19">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>123</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1680,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.453125</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K20">
-        <v>0.3416666666666667</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1701,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1709,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4526315789473684</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K21">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1751,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1780,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4473684210526316</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0.2413793103448276</v>
+        <v>0.264</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1801,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1809,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4457831325301205</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1827,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K23">
-        <v>0.2377622377622378</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1851,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4330708661417323</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>0.232</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1901,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4259259259259259</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1927,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K25">
-        <v>0.2008032128514056</v>
+        <v>0.234375</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1951,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>199</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1959,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4075829383886256</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>0.1849255039439089</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L26">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2001,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>930</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2009,13 +2030,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4312796208530806</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2027,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K27">
-        <v>0.1666666666666667</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2051,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,13 +2080,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3968253968253968</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2077,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K28">
-        <v>0.1559139784946237</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2101,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2109,13 +2130,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2127,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K29">
-        <v>0.1452991452991453</v>
+        <v>0.182296231375986</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2151,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>933</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2159,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3793103448275862</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2180,28 +2201,28 @@
         <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K30">
-        <v>0.1168831168831169</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L30">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1360</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2209,13 +2230,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3650793650793651</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2227,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K31">
-        <v>0.09740259740259741</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2251,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2259,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3564356435643564</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2277,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K32">
-        <v>0.08823529411764706</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2301,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2309,13 +2330,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.35</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,28 +2351,28 @@
         <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K33">
-        <v>0.07520891364902507</v>
+        <v>0.1077922077922078</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>332</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2359,13 +2380,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3488372093023256</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2377,31 +2398,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K34">
-        <v>0.07120743034055728</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2409,13 +2430,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3370786516853932</v>
+        <v>0.3671875</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2427,31 +2448,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>0.06405693950177936</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L35">
         <v>18</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2459,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3265306122448979</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2477,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K36">
-        <v>0.0622568093385214</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2501,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2509,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3061224489795918</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -2527,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K37">
-        <v>0.05866666666666667</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>706</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2559,7 +2580,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2962962962962963</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2577,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K38">
-        <v>0.05190311418685121</v>
+        <v>0.05823293172690763</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>0.9399999999999999</v>
@@ -2601,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>274</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2609,7 +2630,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2567567567567567</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C39">
         <v>19</v>
@@ -2627,31 +2648,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K39">
-        <v>0.04838709677419355</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>472</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2659,13 +2680,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.24</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2677,31 +2698,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K40">
-        <v>0.03857142857142857</v>
+        <v>0.03953488372093023</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O40">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>673</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2709,13 +2730,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2393162393162393</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2727,31 +2748,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K41">
-        <v>0.03856041131105398</v>
+        <v>0.03374777975133215</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="O41">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>374</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2759,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2164948453608248</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2777,7 +2798,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>152</v>
+        <v>49</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42">
+        <v>0.02421652421652421</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>0.85</v>
+      </c>
+      <c r="O42">
+        <v>0.15</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2785,13 +2830,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2164948453608248</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2803,7 +2848,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43">
+        <v>0.02013422818791946</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>64</v>
+      </c>
+      <c r="N43">
+        <v>0.23</v>
+      </c>
+      <c r="O43">
+        <v>0.77</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>730</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2811,13 +2880,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2120253164556962</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C44">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2829,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2837,13 +2906,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2027027027027027</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2855,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2863,13 +2932,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2881,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2889,13 +2958,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1956521739130435</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2907,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>222</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2915,13 +2984,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1930379746835443</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2933,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>255</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2941,13 +3010,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1925287356321839</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C49">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2959,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2967,25 +3036,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1916790490341753</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C50">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>544</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2993,13 +3062,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1719745222929936</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3011,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>130</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3019,13 +3088,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1694915254237288</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3037,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3045,25 +3114,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1642857142857143</v>
+        <v>0.1844380403458213</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3071,13 +3140,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1635514018691589</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3089,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3097,25 +3166,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1588785046728972</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3123,13 +3192,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1485714285714286</v>
+        <v>0.165</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3141,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3149,13 +3218,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1475409836065574</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3167,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3175,25 +3244,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1280353200883002</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>395</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3201,13 +3270,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1233766233766234</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3219,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>135</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3227,13 +3296,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1151832460732984</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3245,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3253,25 +3322,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1138211382113821</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>218</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3279,13 +3348,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1086142322097378</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3297,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3305,25 +3374,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1047120418848168</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3331,25 +3400,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.09315068493150686</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C64">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>331</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3357,25 +3426,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.09090909090909091</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E65">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3383,25 +3452,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.08482142857142858</v>
+        <v>0.109375</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>410</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3409,25 +3478,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08205128205128205</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>179</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3435,13 +3504,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08085808580858085</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C68">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E68">
         <v>0.04</v>
@@ -3453,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>557</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3461,25 +3530,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07553956834532374</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E69">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F69">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>257</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3487,25 +3556,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07494145199063232</v>
+        <v>0.09642857142857143</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>395</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3513,25 +3582,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07102272727272728</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>327</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3539,25 +3608,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0586734693877551</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>738</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3565,25 +3634,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05714285714285714</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E73">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3591,25 +3660,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05521472392638037</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>616</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3617,25 +3686,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04941176470588235</v>
+        <v>0.07933884297520662</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E75">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>404</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3643,25 +3712,181 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.03413654618473896</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06290115532734275</v>
+      </c>
+      <c r="C77">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>64</v>
+      </c>
+      <c r="E77">
+        <v>0.23</v>
+      </c>
+      <c r="F77">
+        <v>0.77</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.06050955414012739</v>
+      </c>
+      <c r="C78">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>0.14</v>
+      </c>
+      <c r="F78">
+        <v>0.86</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.05386416861826698</v>
+      </c>
+      <c r="C79">
         <v>23</v>
       </c>
-      <c r="E76">
-        <v>0.26</v>
-      </c>
-      <c r="F76">
-        <v>0.74</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>481</v>
+      <c r="D79">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>0.23</v>
+      </c>
+      <c r="F79">
+        <v>0.77</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.05343511450381679</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>35</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>0.09</v>
+      </c>
+      <c r="F81">
+        <v>0.91</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04016064257028112</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="E82">
+        <v>0.23</v>
+      </c>
+      <c r="F82">
+        <v>0.77</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
